--- a/Configurations.xlsx
+++ b/Configurations.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\john.lester.f.lucena\Desktop\Taleo poc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\john.lester.f.lucena\git\Taleo_Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -47,7 +47,7 @@
     <t>Row</t>
   </si>
   <si>
-    <t>Activate</t>
+    <t>Deactivate</t>
   </si>
 </sst>
 </file>
@@ -367,8 +367,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Configurations.xlsx
+++ b/Configurations.xlsx
@@ -47,7 +47,7 @@
     <t>Row</t>
   </si>
   <si>
-    <t>Deactivate</t>
+    <t>Activate</t>
   </si>
 </sst>
 </file>
@@ -368,7 +368,7 @@
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Configurations.xlsx
+++ b/Configurations.xlsx
@@ -47,7 +47,7 @@
     <t>Row</t>
   </si>
   <si>
-    <t>Activate</t>
+    <t>Deactivate</t>
   </si>
 </sst>
 </file>

--- a/Configurations.xlsx
+++ b/Configurations.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\john.lester.f.lucena\git\Taleo_Release\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jona.liza.m.montrias\Documents\taleo\Taleo_Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,9 +26,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
-    <t>SmartOrg</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -48,6 +45,9 @@
   </si>
   <si>
     <t>Deactivate</t>
+  </si>
+  <si>
+    <t>smartorg</t>
   </si>
 </sst>
 </file>
@@ -367,8 +367,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -386,31 +386,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Configurations.xlsx
+++ b/Configurations.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Name</t>
   </si>
@@ -32,22 +32,25 @@
     <t>VG - Standard Basic Hiring Manager</t>
   </si>
   <si>
-    <t>User types</t>
-  </si>
-  <si>
-    <t>Refineby</t>
-  </si>
-  <si>
-    <t>Refresh</t>
-  </si>
-  <si>
-    <t>Row</t>
-  </si>
-  <si>
-    <t>Deactivate</t>
-  </si>
-  <si>
     <t>smartorg</t>
+  </si>
+  <si>
+    <t>user types</t>
+  </si>
+  <si>
+    <t>refineby</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>refresh</t>
+  </si>
+  <si>
+    <t>row</t>
+  </si>
+  <si>
+    <t>deactivate</t>
   </si>
 </sst>
 </file>
@@ -368,7 +371,7 @@
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -386,31 +389,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
       </c>
       <c r="G1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Configurations.xlsx
+++ b/Configurations.xlsx
@@ -50,7 +50,7 @@
     <t>row</t>
   </si>
   <si>
-    <t>deactivate</t>
+    <t>activate</t>
   </si>
 </sst>
 </file>
@@ -370,8 +370,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Configurations.xlsx
+++ b/Configurations.xlsx
@@ -50,7 +50,7 @@
     <t>row</t>
   </si>
   <si>
-    <t>activate</t>
+    <t>deactivate</t>
   </si>
 </sst>
 </file>
@@ -371,7 +371,7 @@
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
